--- a/data/trans_camb/P1402-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1402-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.011450593752995</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.492099175449618</v>
+        <v>1.49209917544962</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.200967455357256</v>
@@ -664,7 +664,7 @@
         <v>1.178383827464437</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.362842740242391</v>
+        <v>1.362842740242394</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.395813115459347</v>
+        <v>-3.77545111701252</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7854823973105262</v>
+        <v>-0.7978857037941451</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.659831612700139</v>
+        <v>-1.762640911381994</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.322469803375194</v>
+        <v>-1.442831535127457</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.79247889012541</v>
+        <v>-1.882501906685123</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.538595516509446</v>
+        <v>-1.344778171631861</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.907273161415025</v>
+        <v>-2.110973210455253</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.021052512256294</v>
+        <v>-0.8521557675377147</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.7990676019939007</v>
+        <v>-0.709895618571767</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.119235947463702</v>
+        <v>1.630600943707746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.778345452512941</v>
+        <v>4.700914428346428</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.91757632658868</v>
+        <v>4.929888313077007</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.083557192355722</v>
+        <v>3.849667516334323</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.273843657298449</v>
+        <v>3.356953644295512</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.069446969092946</v>
+        <v>4.155094011765488</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.211332884404154</v>
+        <v>1.963295610551379</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.972737374814141</v>
+        <v>2.949797663388172</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.388678836188761</v>
+        <v>3.72207674936437</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2483997488313555</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1842635665843612</v>
+        <v>0.1842635665843614</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1274016316317236</v>
@@ -769,7 +769,7 @@
         <v>0.1322347197835234</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.152934149013854</v>
+        <v>0.1529341490138543</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3512438762871491</v>
+        <v>-0.3758579858640935</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.08582064650686885</v>
+        <v>-0.07850089695165791</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1818720048338135</v>
+        <v>-0.1917409635977801</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1273619894694228</v>
+        <v>-0.128270712839295</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1675283451632376</v>
+        <v>-0.1766146788609029</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1381149738920855</v>
+        <v>-0.126626881419022</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1904082579174862</v>
+        <v>-0.2042037949791726</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1008627876267077</v>
+        <v>-0.08707260108596301</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.08120911240102693</v>
+        <v>-0.07607929925093976</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3437012892222351</v>
+        <v>0.2657132101319988</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7503434871959159</v>
+        <v>0.7551017448922558</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7445372820607457</v>
+        <v>0.7629978263937903</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5148301780851287</v>
+        <v>0.4884684098050153</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4064380740007626</v>
+        <v>0.4404248995146642</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4969507139278038</v>
+        <v>0.5013611760284125</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2855856674585244</v>
+        <v>0.2524315152136005</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3758733379502338</v>
+        <v>0.3740187993594027</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.431166288233601</v>
+        <v>0.4626688387212732</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.635533506139966</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.533693626830828</v>
+        <v>4.533693626830827</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.96911628316352</v>
@@ -869,7 +869,7 @@
         <v>1.634958603738069</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.026919986982891</v>
+        <v>3.02691998698289</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.312352238469329</v>
@@ -878,7 +878,7 @@
         <v>2.603727096229156</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.750786108048077</v>
+        <v>3.750786108048076</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7982366082894632</v>
+        <v>-0.6599305739748942</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.521105717786134</v>
+        <v>1.324048727939852</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.227004680275525</v>
+        <v>2.320302905274028</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6234532468892142</v>
+        <v>0.693271349211994</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.7375470009590805</v>
+        <v>-0.5577296946947722</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9714222371688502</v>
+        <v>1.085527352951146</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6432140482670797</v>
+        <v>0.8339438131789387</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9206139922187849</v>
+        <v>0.9996416366176649</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.266536107063284</v>
+        <v>2.301399585187184</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.720689906579215</v>
+        <v>3.660302889395776</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.093735790108137</v>
+        <v>6.076605086316784</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.642831985132267</v>
+        <v>6.96589031977137</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.266372366105894</v>
+        <v>5.287155745953767</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.960802507543563</v>
+        <v>4.002945513368514</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.821658331985475</v>
+        <v>4.779333275808958</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.960587808032687</v>
+        <v>3.930041584702284</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.227773600651338</v>
+        <v>4.199061551423753</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.110717458763395</v>
+        <v>5.276669745358642</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.6488586134208427</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.8091594137180008</v>
+        <v>0.8091594137180005</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4753051221801655</v>
@@ -974,7 +974,7 @@
         <v>0.2617291223371186</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4845585140604792</v>
+        <v>0.484558514060479</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3904816868194249</v>
@@ -983,7 +983,7 @@
         <v>0.4396854993104414</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.63338675743406</v>
+        <v>0.6333867574340598</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1217809077902507</v>
+        <v>-0.09544949121206268</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2188114342659235</v>
+        <v>0.1779111858290059</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3418502959288202</v>
+        <v>0.3488403829444895</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.08086464405568856</v>
+        <v>0.09919214079209171</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1131850446577279</v>
+        <v>-0.08929124686988857</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1284108730994841</v>
+        <v>0.1466600290118883</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1018058660299694</v>
+        <v>0.1280028897222709</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1498800199652074</v>
+        <v>0.1525649736818658</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3342433594422755</v>
+        <v>0.3265056279046553</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7740146362672959</v>
+        <v>0.7773050826561934</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.297718040862998</v>
+        <v>1.294096213404501</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.463286565777207</v>
+        <v>1.488416962139293</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9957377613615497</v>
+        <v>1.008426077019765</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7465183810301619</v>
+        <v>0.7566067894657326</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8938742023235521</v>
+        <v>0.9237834201797537</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7697949317473087</v>
+        <v>0.7605125362706828</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8199496297433049</v>
+        <v>0.7842946345679438</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9813319715037501</v>
+        <v>1.032146267540902</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.227684132215595</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.428137568927346</v>
+        <v>5.428137568927345</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.16360903004163</v>
@@ -1083,7 +1083,7 @@
         <v>2.087422269795765</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.377794189358778</v>
+        <v>0.3777941893587773</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.784182540726485</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.149165305150203</v>
+        <v>2.296252442826463</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3450471520521384</v>
+        <v>0.1775725581699985</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.433620796568043</v>
+        <v>3.63974960621073</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.165331041754595</v>
+        <v>-1.023497788543944</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.4572435547551895</v>
+        <v>-0.3742018628547774</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.565447685228026</v>
+        <v>-1.565602475186032</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.272650495269285</v>
+        <v>1.226080820842275</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6340324948326024</v>
+        <v>0.4758636229605421</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.542504618291604</v>
+        <v>1.530230128864244</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.535056220844242</v>
+        <v>6.872610078240124</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.290675001663051</v>
+        <v>4.378486504407387</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.633279735500126</v>
+        <v>7.690580479715726</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.366487099017017</v>
+        <v>3.599315434572792</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.790689786181669</v>
+        <v>4.807193232794262</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.223356464695919</v>
+        <v>2.202526084375751</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.523263051982305</v>
+        <v>4.578042080169829</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.958581340331271</v>
+        <v>3.818266295577649</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.27660775779273</v>
+        <v>4.334692999149451</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.3611725071131863</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06536716433367071</v>
+        <v>0.06536716433367058</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.558969246375204</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.4332011186988035</v>
+        <v>0.4239692419772353</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.0473613256262196</v>
+        <v>0.02374890283551523</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6343660143598361</v>
+        <v>0.6668991547979792</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1664971734394745</v>
+        <v>-0.1640531370326207</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.0766810521384879</v>
+        <v>-0.06980626869408744</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2240868650902804</v>
+        <v>-0.2223631933239537</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2214563251891475</v>
+        <v>0.2103306071755651</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1048196262099009</v>
+        <v>0.07748001055243249</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2760816627244128</v>
+        <v>0.2578074290565947</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.869023060250627</v>
+        <v>1.940347299526552</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.160676658790189</v>
+        <v>1.236332641883192</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.286152794563101</v>
+        <v>2.17627580224677</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6952675356913384</v>
+        <v>0.7379996052809599</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9832186387286735</v>
+        <v>0.9864315110684041</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4686781267860547</v>
+        <v>0.463002341264624</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.040998194009861</v>
+        <v>1.020216030843767</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.878189682055592</v>
+        <v>0.8655827427997111</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9741878090636517</v>
+        <v>1.031721332828186</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>2.827679171831809</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.637692684511801</v>
+        <v>2.637692684511799</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5836329219031391</v>
+        <v>-0.8811658948944364</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6786788363290328</v>
+        <v>0.485700020071863</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3495251308235462</v>
+        <v>0.5325055495933864</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.084482973788659</v>
+        <v>-0.7452422051682749</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.671212432900566</v>
+        <v>-0.9073819071820812</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.5183126865924542</v>
+        <v>-0.3150495562723363</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1122133310709755</v>
+        <v>-0.05932891739629732</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5032067190783082</v>
+        <v>0.8135260628416445</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9167217521999553</v>
+        <v>0.7270493425601483</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.151572046502442</v>
+        <v>5.036316054314361</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.854800481106126</v>
+        <v>6.748599048189615</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.559013761199103</v>
+        <v>5.555609852276447</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.765728771037335</v>
+        <v>5.201589284726523</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.240660471157838</v>
+        <v>5.43627878245817</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.249263886570268</v>
+        <v>4.355151873094013</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.278052178350124</v>
+        <v>4.120815012080061</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.889850809351667</v>
+        <v>5.172405153746505</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.560188134954442</v>
+        <v>4.338904865889031</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.6714908031060361</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.6263745889963701</v>
+        <v>0.6263745889963698</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1432318690803799</v>
+        <v>-0.1924361079632957</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.07691521570426126</v>
+        <v>0.05341957888502446</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.03756369527251288</v>
+        <v>0.07011421141635821</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2289177980938587</v>
+        <v>-0.1781510840234835</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2008284794666519</v>
+        <v>-0.2033590943692616</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1153570321206443</v>
+        <v>-0.07290321102937536</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.003525781236976136</v>
+        <v>-0.02930442680995838</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.08302388277135042</v>
+        <v>0.1203437571887345</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1540019766980708</v>
+        <v>0.1271546954591722</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.512816433046</v>
+        <v>1.402146347769727</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.056335189054966</v>
+        <v>1.971588699769672</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.69440145638571</v>
+        <v>1.712624622838489</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.189118058745649</v>
+        <v>2.506003062099972</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.379380639630166</v>
+        <v>2.703618217762183</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.215972223432132</v>
+        <v>2.390775835240639</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.290026239170363</v>
+        <v>1.266496193100907</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.451925072852589</v>
+        <v>1.614729990123719</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.53729203908933</v>
+        <v>1.404643515500088</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>1.642826255457688</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.0640613867321</v>
+        <v>1.064061386732098</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.977320085760519</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8445421152740508</v>
+        <v>0.8036998544805514</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.959145149126006</v>
+        <v>2.049548850722954</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.558231353167957</v>
+        <v>2.706033596826053</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.7230683906024853</v>
+        <v>0.6321139676217218</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.3801510872512751</v>
+        <v>0.3329899199935589</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.06396500702753388</v>
+        <v>-0.00973659545461414</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.021447761036363</v>
+        <v>1.031642026484776</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.507951836618705</v>
+        <v>1.578712438648261</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.612891996085383</v>
+        <v>1.549367701301043</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.1648506510266</v>
+        <v>3.244098159898098</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.428045395124771</v>
+        <v>4.606320908319438</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.887577551811781</v>
+        <v>5.058772530149868</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.286215670839618</v>
+        <v>3.193467649385504</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.046792546668632</v>
+        <v>2.974297515390651</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.16735303128862</v>
+        <v>2.080737512777274</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.868551790607803</v>
+        <v>2.887294326970795</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.412350927442272</v>
+        <v>3.264996519312283</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.213187383901583</v>
+        <v>3.174260417373537</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.2448252327241305</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1585737236509348</v>
+        <v>0.1585737236509346</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.324167111421971</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.12977475980598</v>
+        <v>0.1396796773009299</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.3163763096075611</v>
+        <v>0.3407348337060112</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4080430182028867</v>
+        <v>0.4392791964212807</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.09545171519935945</v>
+        <v>0.08692463039507008</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04491123390737906</v>
+        <v>0.0403676907770578</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003047982963013784</v>
+        <v>-0.001935898839907272</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1597984746293508</v>
+        <v>0.1568931897507648</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2326262038151483</v>
+        <v>0.2380676236773816</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2436073978478666</v>
+        <v>0.2356996211812055</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6291154155442545</v>
+        <v>0.6522979085868288</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8886253771199687</v>
+        <v>0.9630383429322494</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9932422999974496</v>
+        <v>1.020480159227707</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5399162299313833</v>
+        <v>0.5140862525600903</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4908930871473178</v>
+        <v>0.4697787413351433</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3509142179594355</v>
+        <v>0.3408227571050218</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5020194846488681</v>
+        <v>0.5067342938702729</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5964855962952583</v>
+        <v>0.578090036575396</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5680524344654337</v>
+        <v>0.5643376771227346</v>
       </c>
     </row>
     <row r="34">
